--- a/CoreRulebook/Data/Items/weapons.xlsx
+++ b/CoreRulebook/Data/Items/weapons.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDBF46E-CD2A-4A93-921B-E73E2980F6D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDAE60C-A6AD-4EF9-A855-0DE98E1E020D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="81">
   <si>
     <t>Weapon</t>
   </si>
@@ -135,21 +135,12 @@
     <t>Glaive</t>
   </si>
   <si>
-    <t>1d20</t>
-  </si>
-  <si>
     <t>Shortbow</t>
   </si>
   <si>
     <t>Ranged</t>
   </si>
   <si>
-    <t>Max range 30m, requires arrows</t>
-  </si>
-  <si>
-    <t>Max range 20m, requires bolts</t>
-  </si>
-  <si>
     <t>Sling</t>
   </si>
   <si>
@@ -198,12 +189,6 @@
     <t>Finesse</t>
   </si>
   <si>
-    <t>2d10</t>
-  </si>
-  <si>
-    <t>1d</t>
-  </si>
-  <si>
     <t>Unarmed Strike</t>
   </si>
   <si>
@@ -219,9 +204,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>Heavy Crossbow</t>
-  </si>
-  <si>
     <t>Firearms</t>
   </si>
   <si>
@@ -234,12 +216,6 @@
     <t>Shotgun</t>
   </si>
   <si>
-    <t>Requires arrows. Use a FIN check to aim, but ATH for damage check. Max range: 150m.</t>
-  </si>
-  <si>
-    <t>Max range: 50m (rocks), 100m (bullets)</t>
-  </si>
-  <si>
     <t>2d12</t>
   </si>
   <si>
@@ -249,12 +225,6 @@
     <t>10d4</t>
   </si>
   <si>
-    <t>Max range: 40m (standing), 100m (standing, 2 turn aim), 500m (prone, 3 turn aim)</t>
-  </si>
-  <si>
-    <t>Max range: 30m (accurate)</t>
-  </si>
-  <si>
     <t>Brutish</t>
   </si>
   <si>
@@ -270,10 +240,37 @@
     <t>Can be thrown, range: 10m</t>
   </si>
   <si>
-    <t>Range: 10m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max range: 10m (full damage), 1d4 removed for every subsequent metre. </t>
+    <t>Crossbow</t>
+  </si>
+  <si>
+    <t>Max range 20m. Ammunition: Bolts. Reload time:1 turn.</t>
+  </si>
+  <si>
+    <t>Max range: 150m. Use a FIN check to aim, but ATH for damage check. Ammunition: Arrows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max range 30m, Ammunition: Arrows. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max range: 50m (rocks), 100m (lead shot). Ammunition: lead shot, or improvised. </t>
+  </si>
+  <si>
+    <t>Range: 10m. Ammuniion: Darts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max range: 30m (accurate). Ammunition: Bullets. Cartridge: 8, reload time: 1 turn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max range: 40m (standing), 100m (standing, 2 turn aim), 500m (prone, 3 turn aim). Ammunition: Bullets, Cartridge: 1, reload time: 1 turn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max range: 10m (full damage), 1d4 removed for every subsequent metre. Ammunition: Bullets, Cartridge: 2, Reload time: 2 turns. </t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applies {\\it Incapacitated} status on a failed DV10 Athletics (Strength) Resist check. Can be thrown: range 5m. </t>
   </si>
 </sst>
 </file>
@@ -626,13 +623,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -647,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -667,13 +664,13 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -687,13 +684,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -704,13 +701,13 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -721,13 +718,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -738,16 +735,16 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -758,19 +755,19 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -778,16 +775,16 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -795,13 +792,13 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
@@ -812,33 +809,33 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -849,13 +846,13 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -866,358 +863,372 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
         <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" t="s">
-        <v>55</v>
-      </c>
       <c r="E24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" t="s">
-        <v>81</v>
+        <v>51</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F24" xr:uid="{AF046D5A-A5D5-447F-87FF-72F02599E6EB}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F26">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
       <sortCondition ref="B1:B24"/>
     </sortState>
   </autoFilter>

--- a/CoreRulebook/Data/Items/weapons.xlsx
+++ b/CoreRulebook/Data/Items/weapons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDAE60C-A6AD-4EF9-A855-0DE98E1E020D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462E705B-B625-4B50-8D2B-0B2E90CBC1D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$24</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -28,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>Weapon</t>
   </si>
@@ -271,6 +279,39 @@
   </si>
   <si>
     <t xml:space="preserve">Applies {\\it Incapacitated} status on a failed DV10 Athletics (Strength) Resist check. Can be thrown: range 5m. </t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>GPBCost</t>
+  </si>
+  <si>
+    <t>BaseKnuts</t>
+  </si>
+  <si>
+    <t>Galleons</t>
+  </si>
+  <si>
+    <t>Sickles</t>
+  </si>
+  <si>
+    <t>Knuts</t>
+  </si>
+  <si>
+    <t>RoundSickles</t>
+  </si>
+  <si>
+    <t>RoundKnuts</t>
+  </si>
+  <si>
+    <t>StringGalleon</t>
+  </si>
+  <si>
+    <t>StringSickle</t>
+  </si>
+  <si>
+    <t>StringKnut</t>
   </si>
 </sst>
 </file>
@@ -304,10 +345,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,23 +667,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="1023" width="11.5703125"/>
+    <col min="3" max="5" width="11.5703125"/>
+    <col min="6" max="6" width="37.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="1023" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -655,11 +702,44 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -675,11 +755,54 @@
       <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="str">
+        <f>CONCATENATE(P2,Q2,R2)</f>
+        <v>\galleon{6}~</v>
+      </c>
+      <c r="H2">
+        <v>300</v>
+      </c>
+      <c r="I2">
+        <f>H2*493/50</f>
+        <v>2958</v>
+      </c>
+      <c r="J2">
+        <f>FLOOR(I2/493,1)</f>
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <f>FLOOR((I2-493*J2)/29,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>FLOOR((I2-493*J2-29*K2),1)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>IF(J2&gt;0,ROUND(K2/5,0)*5,K2)</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>IF(J2&gt;0,0,IF(M2&gt;0,ROUND(L2/5,0)*5,L2))</f>
+        <v>0</v>
+      </c>
+      <c r="P2" t="str">
+        <f>IF(J2&gt;0,CONCATENATE("\galleon{",J2,"}~"),"")</f>
+        <v>\galleon{6}~</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>IF(M2&gt;0,CONCATENATE("\sickle{",M2,"}~"),"")</f>
+        <v/>
+      </c>
+      <c r="R2" t="str">
+        <f>IF(J2&gt;0,"",IF(N2&gt;0,CONCATENATE("\knut{",N2,"}"),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -695,8 +818,51 @@
       <c r="E3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G31" si="0">CONCATENATE(P3,Q3,R3)</f>
+        <v>\galleon{5}~</v>
+      </c>
+      <c r="H3">
+        <v>250</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I31" si="1">H3*493/50</f>
+        <v>2465</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J31" si="2">FLOOR(I3/493,1)</f>
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K31" si="3">FLOOR((I3-493*J3)/29,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L31" si="4">FLOOR((I3-493*J3-29*K3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M31" si="5">IF(J3&gt;0,ROUND(K3/5,0)*5,K3)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>IF(J3&gt;0,0,IF(M3&gt;0,ROUND(L3/5,0)*5,L3))</f>
+        <v>0</v>
+      </c>
+      <c r="P3" t="str">
+        <f>IF(J3&gt;0,CONCATENATE("\galleon{",J3,"}~"),"")</f>
+        <v>\galleon{5}~</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>IF(M3&gt;0,CONCATENATE("\sickle{",M3,"}~"),"")</f>
+        <v/>
+      </c>
+      <c r="R3" t="str">
+        <f>IF(J3&gt;0,"",IF(N3&gt;0,CONCATENATE("\knut{",N3,"}"),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -712,8 +878,51 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{3}~</v>
+      </c>
+      <c r="H4">
+        <v>150</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>1479</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N31" si="6">IF(J4&gt;0,0,IF(M4&gt;0,ROUND(L4/5,0)*5,L4))</f>
+        <v>0</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" ref="P4:P9" si="7">IF(J4&gt;0,CONCATENATE("\galleon{",J4,"}~"),"")</f>
+        <v>\galleon{3}~</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" ref="Q4:Q9" si="8">IF(M4&gt;0,CONCATENATE("\sickle{",M4,"}~"),"")</f>
+        <v/>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" ref="R4:R9" si="9">IF(J4&gt;0,"",IF(N4&gt;0,CONCATENATE("\knut{",N4,"}"),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -729,8 +938,51 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{3}~</v>
+      </c>
+      <c r="H5">
+        <v>150</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>1479</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="7"/>
+        <v>\galleon{3}~</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -746,11 +998,54 @@
       <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{2}~</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>986</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="7"/>
+        <v>\galleon{2}~</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -766,11 +1061,54 @@
       <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{1}~</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>493</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="7"/>
+        <v>\galleon{1}~</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -786,8 +1124,51 @@
       <c r="E8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{1}~</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>493</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="7"/>
+        <v>\galleon{1}~</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -803,11 +1184,54 @@
       <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{3}~</v>
+      </c>
+      <c r="H9">
+        <v>150</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1479</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="7"/>
+        <v>\galleon{3}~</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -823,8 +1247,51 @@
       <c r="E10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{10}~</v>
+      </c>
+      <c r="H10">
+        <v>29.5</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>290.87</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P10" t="str">
+        <f>IF(J10&gt;0,CONCATENATE("\galleon{",J10,"}~"),"")</f>
+        <v/>
+      </c>
+      <c r="Q10" t="str">
+        <f>IF(M10&gt;0,CONCATENATE("\sickle{",M10,"}~"),"")</f>
+        <v>\sickle{10}~</v>
+      </c>
+      <c r="R10" t="str">
+        <f>IF(J10&gt;0,"",IF(N10&gt;0,CONCATENATE("\knut{",N10,"}"),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -840,8 +1307,51 @@
       <c r="E11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{1}~\sickle{10}~</v>
+      </c>
+      <c r="H11">
+        <v>85</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>838.1</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P11" t="str">
+        <f>IF(J11&gt;0,CONCATENATE("\galleon{",J11,"}~"),"")</f>
+        <v>\galleon{1}~</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>IF(M11&gt;0,CONCATENATE("\sickle{",M11,"}~"),"")</f>
+        <v>\sickle{10}~</v>
+      </c>
+      <c r="R11" t="str">
+        <f>IF(J11&gt;0,"",IF(N11&gt;0,CONCATENATE("\knut{",N11,"}"),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -857,11 +1367,54 @@
       <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{10}~</v>
+      </c>
+      <c r="H12">
+        <v>29.5</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>290.87</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" ref="P12:P31" si="10">IF(J12&gt;0,CONCATENATE("\galleon{",J12,"}~"),"")</f>
+        <v/>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" ref="Q12:Q31" si="11">IF(M12&gt;0,CONCATENATE("\sickle{",M12,"}~"),"")</f>
+        <v>\sickle{10}~</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" ref="R12:R31" si="12">IF(J12&gt;0,"",IF(N12&gt;0,CONCATENATE("\knut{",N12,"}"),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -877,11 +1430,54 @@
       <c r="E13" t="s">
         <v>22</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{2}~</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>986</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="10"/>
+        <v>\galleon{2}~</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -891,11 +1487,54 @@
       <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{8}~</v>
+      </c>
+      <c r="H14">
+        <v>23.8</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>234.66800000000001</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="11"/>
+        <v>\sickle{8}~</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -911,11 +1550,54 @@
       <c r="E15" t="s">
         <v>62</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{8}~</v>
+      </c>
+      <c r="H15">
+        <v>400</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>3944</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="10"/>
+        <v>\galleon{8}~</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -931,11 +1613,54 @@
       <c r="E16" t="s">
         <v>63</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{12}~</v>
+      </c>
+      <c r="H16">
+        <v>600</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>5916</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="10"/>
+        <v>\galleon{12}~</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -951,11 +1676,54 @@
       <c r="E17" t="s">
         <v>64</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{16}~</v>
+      </c>
+      <c r="H17">
+        <v>800</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>7888</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="10"/>
+        <v>\galleon{16}~</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -971,11 +1739,54 @@
       <c r="E18" t="s">
         <v>28</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{4}~</v>
+      </c>
+      <c r="H18">
+        <v>200</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>1972</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="10"/>
+        <v>\galleon{4}~</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -991,11 +1802,54 @@
       <c r="E19" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{2}~</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>986</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="10"/>
+        <v>\galleon{2}~</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1011,11 +1865,54 @@
       <c r="E20" t="s">
         <v>7</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{1}~</v>
+      </c>
+      <c r="H20">
+        <v>50</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>493</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="10"/>
+        <v>\galleon{1}~</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1031,11 +1928,54 @@
       <c r="E21" t="s">
         <v>24</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{2}~\sickle{10}~</v>
+      </c>
+      <c r="H21">
+        <v>130</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>1281.8</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="10"/>
+        <v>\galleon{2}~</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="11"/>
+        <v>\sickle{10}~</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1051,11 +1991,54 @@
       <c r="E22" t="s">
         <v>28</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{2}~\sickle{5}~</v>
+      </c>
+      <c r="H22">
+        <v>120</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>1183.2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="10"/>
+        <v>\galleon{2}~</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="11"/>
+        <v>\sickle{5}~</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1071,11 +2054,54 @@
       <c r="E23" t="s">
         <v>18</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{1}~\sickle{10}~</v>
+      </c>
+      <c r="H23">
+        <v>85</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>838.1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="10"/>
+        <v>\galleon{1}~</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="11"/>
+        <v>\sickle{10}~</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1091,8 +2117,51 @@
       <c r="E24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{1}~</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>29.58</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="11"/>
+        <v>\sickle{1}~</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1108,11 +2177,54 @@
       <c r="E25" t="s">
         <v>10</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{10}~</v>
+      </c>
+      <c r="H25">
+        <v>29.5</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>290.87</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="11"/>
+        <v>\sickle{10}~</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1128,11 +2240,54 @@
       <c r="E26" t="s">
         <v>7</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{4}~</v>
+      </c>
+      <c r="H26">
+        <v>12</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>118.32</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="11"/>
+        <v>\sickle{4}~</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1148,11 +2303,54 @@
       <c r="E27" t="s">
         <v>12</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{10}~</v>
+      </c>
+      <c r="H27">
+        <v>29.5</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>290.87</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="11"/>
+        <v>\sickle{10}~</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1168,11 +2366,54 @@
       <c r="E28" t="s">
         <v>10</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>\knut{5}</v>
+      </c>
+      <c r="H28">
+        <v>0.6</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>5.9160000000000004</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="12"/>
+        <v>\knut{5}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1188,11 +2429,54 @@
       <c r="E29" t="s">
         <v>10</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{2}~</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>59.16</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="11"/>
+        <v>\sickle{2}~</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1208,8 +2492,51 @@
       <c r="E30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -1222,8 +2549,51 @@
       <c r="E31" t="s">
         <v>10</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>66</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="12"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +2603,7 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
